--- a/data/Classess_2024_biology_Seminars.xlsx
+++ b/data/Classess_2024_biology_Seminars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="509">
   <si>
     <t>Family</t>
   </si>
@@ -1530,6 +1530,30 @@
   </si>
   <si>
     <t>st118927@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Астапова</t>
+  </si>
+  <si>
+    <t>st138471</t>
+  </si>
+  <si>
+    <t>st138471@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зиннатулина</t>
+  </si>
+  <si>
+    <t>Алия</t>
+  </si>
+  <si>
+    <t>Фирсудовна</t>
+  </si>
+  <si>
+    <t>st138472</t>
+  </si>
+  <si>
+    <t>st138472@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2222,6 +2246,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2698,9 +2724,9 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -5296,17 +5322,39 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+    <row r="130" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A130" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A131" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:4">
       <c r="A132" s="9"/>
@@ -10526,6 +10574,10 @@
   <sortState ref="H103:H115">
     <sortCondition ref="H103"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E130" r:id="rId1" display="st138471@student.spbu.ru" tooltip="mailto:st138471@student.spbu.ru"/>
+    <hyperlink ref="E131" r:id="rId2" display="st138472@student.spbu.ru" tooltip="mailto:st138472@student.spbu.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
